--- a/report.xlsx
+++ b/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://utorrent.softybased.ru/</t>
+          <t>https://ya.ru/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-06-30 17:45:27</t>
+          <t>2024-07-01 19:54:48</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>malicious 8/61 fortinet</t>
+          <t>clean 1/70</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>http://google.com/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-07-01 19:30:19</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>clean 2/71</t>
         </is>
       </c>
     </row>
